--- a/文档资料/垫付.xlsx
+++ b/文档资料/垫付.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>超级本hdmi转接头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,206 @@
   </si>
   <si>
     <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘师傅焊接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁铁-铜套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vga线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离合器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减震器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvi线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锥齿轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理线夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘师傅焊接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线手柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链轮链条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防撞橡胶条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动带球硅胶圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛刷 角磨片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防撞橡胶条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kinect可调支架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢丝绳 拉紧器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州-长沙高铁来回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角磨支撑架、夹具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re25电机编码器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电气安装板x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递到付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递到付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前向视觉快递到付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钣金快递到付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同快递到付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票快递到付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机到量能快递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃筒到广东快递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机到量能快递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步轮、带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大同步轮、带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢丝拉紧器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店--来回公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木工夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打的到南站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色手喷漆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大链轮-到广东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +377,11 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -188,6 +392,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:C53" totalsRowShown="0">
+  <autoFilter ref="A1:C53"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="日期" dataDxfId="0"/>
+    <tableColumn id="2" name="金额"/>
+    <tableColumn id="3" name="说明"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C1048576" totalsRowShown="0">
   <autoFilter ref="A1:C1048576"/>
   <tableColumns count="3">
@@ -486,10 +702,564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>41756</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B4">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>41764</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>41765</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>41771</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>41773</v>
+      </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>41776</v>
+      </c>
+      <c r="B11">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>185</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>41780</v>
+      </c>
+      <c r="B13">
+        <v>340</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>41782</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>41785</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>41788</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>41793</v>
+      </c>
+      <c r="B19">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>41796</v>
+      </c>
+      <c r="B21">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>41798</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>41803</v>
+      </c>
+      <c r="B25">
+        <v>49.8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>41805</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>41806</v>
+      </c>
+      <c r="B29">
+        <v>300</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>41807</v>
+      </c>
+      <c r="B30">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>41811</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>41813</v>
+      </c>
+      <c r="B32">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>41814</v>
+      </c>
+      <c r="B33">
+        <v>290</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>148.5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>41815</v>
+      </c>
+      <c r="B35">
+        <v>213</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>340</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>313.8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>41816</v>
+      </c>
+      <c r="B38">
+        <v>140</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>41818</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B42">
+        <v>156</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41824</v>
+      </c>
+      <c r="B43">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>41825</v>
+      </c>
+      <c r="B44">
+        <v>116</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>35.6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>41827</v>
+      </c>
+      <c r="B46">
+        <v>49.6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>41832</v>
+      </c>
+      <c r="B47">
+        <v>628</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>41833</v>
+      </c>
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>41856</v>
+      </c>
+      <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <f>SUBTOTAL(109,B2:B52)</f>
+        <v>4973.3000000000011</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -775,19 +1545,6 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
